--- a/config_12.29/activity_year_config.xlsx
+++ b/config_12.29/activity_year_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.22\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.29\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -603,7 +603,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,7 +639,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -717,8 +717,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -997,13 +1013,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:XFD24"/>
+  <dimension ref="A1:XFD28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="1" topLeftCell="R2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
+      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2226,114 +2242,114 @@
       <c r="A22" s="23">
         <v>21</v>
       </c>
-      <c r="B22" s="24">
+      <c r="B22" s="32">
         <v>21</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="D22" s="25">
-        <v>0</v>
-      </c>
-      <c r="E22" s="25">
-        <v>1</v>
-      </c>
-      <c r="F22" s="22" t="s">
+      <c r="D22" s="33">
+        <v>0</v>
+      </c>
+      <c r="E22" s="33">
+        <v>1</v>
+      </c>
+      <c r="F22" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="G22" s="25" t="s">
+      <c r="G22" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="23">
-        <v>1</v>
-      </c>
-      <c r="I22" s="25" t="s">
+      <c r="H22" s="35">
+        <v>1</v>
+      </c>
+      <c r="I22" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J22" s="25" t="s">
+      <c r="J22" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="K22" s="25"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="25">
-        <v>1</v>
-      </c>
-      <c r="O22" s="25"/>
-      <c r="P22" s="25" t="s">
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33">
+        <v>1</v>
+      </c>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="Q22" s="25" t="s">
+      <c r="Q22" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="R22" s="27">
-        <v>44187.333333333336</v>
-      </c>
-      <c r="S22" s="29">
-        <v>1608595200</v>
-      </c>
-      <c r="T22" s="27">
-        <v>44193.999988425923</v>
-      </c>
-      <c r="U22" s="29">
-        <v>1609171199</v>
+      <c r="R22" s="30">
+        <v>44194.333333333336</v>
+      </c>
+      <c r="S22" s="31">
+        <v>1609200000</v>
+      </c>
+      <c r="T22" s="30">
+        <v>43834.999988425923</v>
+      </c>
+      <c r="U22" s="31">
+        <v>1609775999</v>
       </c>
     </row>
     <row r="23" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A23" s="25">
         <v>22</v>
       </c>
-      <c r="B23" s="24">
+      <c r="B23" s="32">
         <v>22</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="33" t="s">
         <v>125</v>
       </c>
-      <c r="D23" s="25">
-        <v>0</v>
-      </c>
-      <c r="E23" s="25">
+      <c r="D23" s="33">
+        <v>0</v>
+      </c>
+      <c r="E23" s="33">
         <v>2</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="G23" s="25" t="s">
+      <c r="G23" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="25">
-        <v>1</v>
-      </c>
-      <c r="I23" s="25" t="s">
+      <c r="H23" s="33">
+        <v>1</v>
+      </c>
+      <c r="I23" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="25" t="s">
+      <c r="J23" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="25"/>
-      <c r="L23" s="25"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="25">
-        <v>1</v>
-      </c>
-      <c r="O23" s="25"/>
-      <c r="P23" s="25" t="s">
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33"/>
+      <c r="N23" s="33">
+        <v>1</v>
+      </c>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="Q23" s="25" t="s">
+      <c r="Q23" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="R23" s="27">
-        <v>44187.333333333336</v>
-      </c>
-      <c r="S23" s="29">
-        <v>1608595200</v>
-      </c>
-      <c r="T23" s="27">
-        <v>44193.999988425923</v>
-      </c>
-      <c r="U23" s="29">
-        <v>1609171199</v>
+      <c r="R23" s="30">
+        <v>44194.333333333336</v>
+      </c>
+      <c r="S23" s="31">
+        <v>1609200000</v>
+      </c>
+      <c r="T23" s="30">
+        <v>43834.999988425923</v>
+      </c>
+      <c r="U23" s="31">
+        <v>1609775999</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="16.5" x14ac:dyDescent="0.2">
@@ -2392,6 +2408,10 @@
       <c r="U24" s="28">
         <v>1608566399</v>
       </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/config_12.29/activity_year_config.xlsx
+++ b/config_12.29/activity_year_config.xlsx
@@ -500,11 +500,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>圣诞福利</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒收集榜</t>
+    <t>金元宝榜榜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>元旦福利</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1019,7 +1019,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2246,7 +2246,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D22" s="33">
         <v>0</v>
@@ -2303,7 +2303,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D23" s="33">
         <v>0</v>

--- a/config_12.29/activity_year_config.xlsx
+++ b/config_12.29/activity_year_config.xlsx
@@ -500,11 +500,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>金元宝榜榜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>元旦福利</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>金元宝榜</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1019,7 +1019,7 @@
       <pane xSplit="8" ySplit="1" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2246,7 +2246,7 @@
         <v>21</v>
       </c>
       <c r="C22" s="33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D22" s="33">
         <v>0</v>
@@ -2303,7 +2303,7 @@
         <v>22</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D23" s="33">
         <v>0</v>
